--- a/src/main/resources/datafiles/books.xlsx
+++ b/src/main/resources/datafiles/books.xlsx
@@ -1,18 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Class\2024\FALL_2024\SWP391\Project\EIMS-FUHCM-BE\src\main\resources\datafiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9242EE-00B9-4142-937D-6A3BFC5B9ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Attendance and Total Hours" r:id="rId3" sheetId="1"/>
+    <sheet name="Attendance and Total Hours" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>ATTENDANCE AND TOTAL HOURS REPORT
 FPTUHCM - FALL 2024</t>
@@ -21,6 +40,9 @@
     <t>INVIGILATOR INFORMATION</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>FU ID</t>
   </si>
   <si>
@@ -51,6 +73,9 @@
     <t>nganvhheimsfuhcm@gmail.com</t>
   </si>
   <si>
+    <t>SUMMARY</t>
+  </si>
+  <si>
     <t>Metric</t>
   </si>
   <si>
@@ -63,21 +88,24 @@
     <t>Total slots</t>
   </si>
   <si>
-    <t>slot</t>
+    <t>Slot</t>
   </si>
   <si>
     <t>Total hours</t>
   </si>
   <si>
-    <t>hour</t>
+    <t>Hour</t>
+  </si>
+  <si>
+    <t>Hourly rate</t>
+  </si>
+  <si>
+    <t>VND</t>
   </si>
   <si>
     <t>Total Remuneration</t>
   </si>
   <si>
-    <t>VND</t>
-  </si>
-  <si>
     <t>No.</t>
   </si>
   <si>
@@ -103,78 +131,117 @@
   </si>
   <si>
     <t>Total Hours</t>
+  </si>
+  <si>
+    <t>Hourly Rate</t>
+  </si>
+  <si>
+    <t>25/10/2024</t>
+  </si>
+  <si>
+    <t>07:00</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>22/10/2024</t>
+  </si>
+  <si>
+    <t>Total:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="8">
-    <font>
-      <sz val="11.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Tahoma"/>
-      <sz val="20.0"/>
+      <b/>
+      <sz val="20"/>
       <color indexed="2"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF1C4587"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF1C4587"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF1C4587"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF1C4587"/>
-      <b val="true"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF1C4587"/>
+      <name val="Tahoma"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill>
+      <patternFill patternType="none">
         <fgColor rgb="FFC2EFEC"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill>
+      <patternFill patternType="none">
         <fgColor rgb="FFDBE5F1"/>
       </patternFill>
     </fill>
@@ -183,8 +250,13 @@
         <fgColor rgb="FFDBE5F1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -193,195 +265,697 @@
       <diagonal/>
     </border>
     <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true" applyNumberFormat="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" applyAlignment="true">
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="4" xfId="0" applyFill="true" applyFont="true" applyNumberFormat="true" applyBorder="true"/>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" applyAlignment="true">
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" applyAlignment="true">
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="4" xfId="0" applyFill="true" applyFont="true" applyNumberFormat="true" applyBorder="true"/>
-    <xf numFmtId="3" fontId="7" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" applyAlignment="true">
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFA8072"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFA8072"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="78.07421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.0390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="5.31640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="10.140625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="8.7265625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="10.03515625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="6.3984375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.4921875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="18.99609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="3">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="3">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s" s="3">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s" s="3">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s" s="3">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="5">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s" s="5">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s" s="5">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="6">
+      <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" t="s" s="6">
+      <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s" s="6">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" t="s" s="6">
+      <c r="B13" s="4">
+        <f>COUNTA(B20,B21)</f>
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s" s="6">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" t="s" s="6">
+      <c r="B14" s="4">
+        <f>I22</f>
+        <v>4</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="7">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="s" s="7">
+      <c r="B15" s="4">
+        <f>J22</f>
+        <v>100000</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C17" t="s" s="7">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D17" t="s" s="7">
+      <c r="B16" s="4">
+        <f>K22</f>
+        <v>400000</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E17" t="s" s="7">
+      <c r="B19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F17" t="s" s="7">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G17" t="s" s="7">
+      <c r="D19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H17" t="s" s="7">
+      <c r="E19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I17" t="s" s="7">
+      <c r="F19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J17" t="s" s="7">
-        <v>19</v>
+      <c r="G19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>1</v>
+      </c>
+      <c r="B20" s="6">
+        <v>6</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="6" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="G20" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6">
+        <f>IF(AND(F20=TRUE,G20=TRUE),HOUR(E20-D20) + MINUTE(E20-D20)/60, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="16" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="G21" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7">
+        <f>IF(AND(F21=TRUE,G21=TRUE),HOUR(E21-D21) + MINUTE(E21-D21)/60, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="8">
+        <f>SUM(H20:H21)</f>
+        <v>4</v>
+      </c>
+      <c r="I22" s="8">
+        <f>H22</f>
+        <v>4</v>
+      </c>
+      <c r="J22" s="8">
+        <v>100000</v>
+      </c>
+      <c r="K22" s="8">
+        <f>I22*J22</f>
+        <v>400000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="7">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A22:G22"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <conditionalFormatting sqref="F19:G21">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20:H21">
+    <cfRule type="expression" dxfId="1" priority="5">
+      <formula>AND(F20=TRUE,G20=TRUE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="6">
+      <formula>OR(F20=FALSE,G20=FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>